--- a/reports/Angola_2.2_exports_products_HS-AG6-2003-2023.xlsx
+++ b/reports/Angola_2.2_exports_products_HS-AG6-2003-2023.xlsx
@@ -22,10 +22,13 @@
     <t>flowCode</t>
   </si>
   <si>
+    <t>product_rank</t>
+  </si>
+  <si>
     <t>cmdCode</t>
   </si>
   <si>
-    <t>product_rank</t>
+    <t>cmdDesc</t>
   </si>
   <si>
     <t>product_sum</t>
@@ -37,9 +40,6 @@
     <t>product_upper_sum</t>
   </si>
   <si>
-    <t>cmdDesc</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -52,12 +52,12 @@
     <t>271019</t>
   </si>
   <si>
+    <t>271011</t>
+  </si>
+  <si>
     <t>730890</t>
   </si>
   <si>
-    <t>271011</t>
-  </si>
-  <si>
     <t>710239</t>
   </si>
   <si>
@@ -70,12 +70,12 @@
     <t>890520</t>
   </si>
   <si>
+    <t>890190</t>
+  </si>
+  <si>
     <t>271119</t>
   </si>
   <si>
-    <t>890190</t>
-  </si>
-  <si>
     <t>271111</t>
   </si>
   <si>
@@ -94,12 +94,12 @@
     <t>Oils; petroleum oils and oils obtained from bituminous minerals, not crude; preparations n.e.c., containing by weight 70% or more of petroleum oils or oils obtained from bituminous minerals, (excluding waste oils), other than light oils and preparations</t>
   </si>
   <si>
+    <t>Petroleum oils and oils from bituminous minerals, not crude or waste oils; preparations n.e.c. with 70% or more (weight),of petroleum oils or oils from bituminous minerals; being the basic constituents of the preparations: light oils and preparations</t>
+  </si>
+  <si>
     <t>Iron or steel; structures and parts thereof, n.e.s. in heading no. 7308</t>
   </si>
   <si>
-    <t>Petroleum oils and oils from bituminous minerals, not crude or waste oils; preparations n.e.c. with 70% or more (weight),of petroleum oils or oils from bituminous minerals; being the basic constituents of the preparations: light oils and preparations</t>
-  </si>
-  <si>
     <t>Diamonds; non-industrial, (other than unworked or simply sawn, cleaved or bruted), but not mounted or set</t>
   </si>
   <si>
@@ -112,10 +112,10 @@
     <t>Floating or submersible drilling or production platforms</t>
   </si>
   <si>
+    <t>Vessels; n.e.s. in heading no. 8901, for the transport of goods and other vessels for the transport of both persons and goods</t>
+  </si>
+  <si>
     <t>Petroleum gases and other gaseous hydrocarbons; liquefied, n.e.s. in heading no. 2711</t>
-  </si>
-  <si>
-    <t>Vessels; n.e.s. in heading no. 8901, for the transport of goods and other vessels for the transport of both persons and goods</t>
   </si>
   <si>
     <t>Petroleum oils and oils from bituminous minerals, not containing biodiesel, not crude, not waste oils; preparations n.e.c, containing by weight 70% or more of petroleum oils or oils from bituminous minerals; not light oils and preparations</t>
@@ -524,23 +524,23 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
         <v>8804250597.019001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.9445532929742615</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>9321073424.344</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -550,23 +550,23 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
         <v>277225900</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.02974184274484574</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>9321073424.344</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -576,23 +576,23 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
         <v>140536071</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.01507724106463529</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>9321073424.344</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -602,23 +602,23 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>12669535</v>
+      <c r="E5" t="s">
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>0.001359235618390342</v>
+        <v>16672610</v>
       </c>
       <c r="G5">
+        <v>0.001788700640041722</v>
+      </c>
+      <c r="H5">
         <v>9321073424.344</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -628,23 +628,23 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>16672610</v>
+      <c r="E6" t="s">
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>0.001788700640041722</v>
+        <v>12669535</v>
       </c>
       <c r="G6">
+        <v>0.001359235618390342</v>
+      </c>
+      <c r="H6">
         <v>9321073424.344</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -654,23 +654,23 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>136904563</v>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>0.01071947228617754</v>
+        <v>12338282329.898</v>
       </c>
       <c r="G7">
+        <v>0.9660735376247148</v>
+      </c>
+      <c r="H7">
         <v>12771576747.909</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -680,23 +680,23 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>12338282329.898</v>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>0.9660735376247148</v>
+        <v>168682119</v>
       </c>
       <c r="G8">
+        <v>0.01320761894396611</v>
+      </c>
+      <c r="H8">
         <v>12771576747.909</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -706,23 +706,23 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>24641586.656</v>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>0.001929408337152607</v>
+        <v>136904563</v>
       </c>
       <c r="G9">
+        <v>0.01071947228617754</v>
+      </c>
+      <c r="H9">
         <v>12771576747.909</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -732,23 +732,23 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>168682119</v>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>0.01320761894396611</v>
+        <v>24641586.656</v>
       </c>
       <c r="G10">
+        <v>0.001929408337152607</v>
+      </c>
+      <c r="H10">
         <v>12771576747.909</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -758,23 +758,23 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11">
         <v>13829634</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.001082844684957496</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>12771576747.909</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -784,23 +784,23 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>671586290</v>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>0.03041069356289431</v>
+        <v>20937685727.146</v>
       </c>
       <c r="G12">
+        <v>0.9480978900930553</v>
+      </c>
+      <c r="H12">
         <v>22083886005.791</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -810,23 +810,23 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>20937685727.146</v>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
       </c>
       <c r="F13">
-        <v>0.9480978900930553</v>
+        <v>671586290</v>
       </c>
       <c r="G13">
+        <v>0.03041069356289431</v>
+      </c>
+      <c r="H13">
         <v>22083886005.791</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -836,23 +836,23 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>37130851</v>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
       </c>
       <c r="F14">
-        <v>0.001681354947687344</v>
+        <v>199234112</v>
       </c>
       <c r="G14">
+        <v>0.009021696269748691</v>
+      </c>
+      <c r="H14">
         <v>22083886005.791</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -862,23 +862,23 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>199234112</v>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>0.009021696269748691</v>
+        <v>47981226</v>
       </c>
       <c r="G15">
+        <v>0.00217268038729316</v>
+      </c>
+      <c r="H15">
         <v>22083886005.791</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -888,23 +888,23 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>47981226</v>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
       </c>
       <c r="F16">
-        <v>0.00217268038729316</v>
+        <v>37130851</v>
       </c>
       <c r="G16">
+        <v>0.001681354947687344</v>
+      </c>
+      <c r="H16">
         <v>22083886005.791</v>
-      </c>
-      <c r="H16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -914,23 +914,23 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17">
         <v>30670010352.422</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.9590372221854833</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>31979999986.372</v>
-      </c>
-      <c r="H17" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -940,23 +940,23 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>137208332</v>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
       </c>
       <c r="F18">
-        <v>0.004290441903016577</v>
+        <v>555402540</v>
       </c>
       <c r="G18">
+        <v>0.01736718387231645</v>
+      </c>
+      <c r="H18">
         <v>31979999986.372</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -966,23 +966,23 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>555402540</v>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>0.01736718387231645</v>
+        <v>258742278</v>
       </c>
       <c r="G19">
+        <v>0.008090752911515346</v>
+      </c>
+      <c r="H19">
         <v>31979999986.372</v>
-      </c>
-      <c r="H19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -992,23 +992,23 @@
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>91686471.434</v>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
       </c>
       <c r="F20">
-        <v>0.002866994104849012</v>
+        <v>137208332</v>
       </c>
       <c r="G20">
+        <v>0.004290441903016577</v>
+      </c>
+      <c r="H20">
         <v>31979999986.372</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1018,23 +1018,23 @@
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>258742278</v>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
       </c>
       <c r="F21">
-        <v>0.008090752911515346</v>
+        <v>91686471.434</v>
       </c>
       <c r="G21">
+        <v>0.002866994104849012</v>
+      </c>
+      <c r="H21">
         <v>31979999986.372</v>
-      </c>
-      <c r="H21" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1044,23 +1044,23 @@
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22">
         <v>38353255495.958</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.9196365785127872</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>41704795559.548</v>
-      </c>
-      <c r="H22" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1070,23 +1070,23 @@
       <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>629137625</v>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
       </c>
       <c r="F23">
-        <v>0.01508549835957567</v>
+        <v>756137431.048</v>
       </c>
       <c r="G23">
+        <v>0.01813070705426077</v>
+      </c>
+      <c r="H23">
         <v>41704795559.548</v>
-      </c>
-      <c r="H23" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1096,23 +1096,23 @@
       <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>756137431.048</v>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
       </c>
       <c r="F24">
-        <v>0.01813070705426077</v>
+        <v>685462362</v>
       </c>
       <c r="G24">
+        <v>0.01643605616100589</v>
+      </c>
+      <c r="H24">
         <v>41704795559.548</v>
-      </c>
-      <c r="H24" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1122,23 +1122,23 @@
       <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>305203367.76</v>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
       </c>
       <c r="F25">
-        <v>0.007318184004144483</v>
+        <v>629137625</v>
       </c>
       <c r="G25">
+        <v>0.01508549835957567</v>
+      </c>
+      <c r="H25">
         <v>41704795559.548</v>
-      </c>
-      <c r="H25" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1148,23 +1148,23 @@
       <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>685462362</v>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
       </c>
       <c r="F26">
-        <v>0.01643605616100589</v>
+        <v>305203367.76</v>
       </c>
       <c r="G26">
+        <v>0.007318184004144483</v>
+      </c>
+      <c r="H26">
         <v>41704795559.548</v>
-      </c>
-      <c r="H26" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1174,23 +1174,23 @@
       <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>9</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27">
         <v>65415688359.289</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.9655603492454908</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>67748938127.38499</v>
-      </c>
-      <c r="H27" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1200,23 +1200,23 @@
       <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>354839645</v>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
       </c>
       <c r="F28">
-        <v>0.005237567625529606</v>
+        <v>867570658</v>
       </c>
       <c r="G28">
+        <v>0.01280567167515968</v>
+      </c>
+      <c r="H28">
         <v>67748938127.38499</v>
-      </c>
-      <c r="H28" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1226,23 +1226,23 @@
       <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <v>169212902.12</v>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
       </c>
       <c r="F29">
-        <v>0.002497646557970212</v>
+        <v>354839645</v>
       </c>
       <c r="G29">
+        <v>0.005237567625529606</v>
+      </c>
+      <c r="H29">
         <v>67748938127.38499</v>
-      </c>
-      <c r="H29" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1252,23 +1252,23 @@
       <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>867570658</v>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
       </c>
       <c r="F30">
-        <v>0.01280567167515968</v>
+        <v>246317378</v>
       </c>
       <c r="G30">
+        <v>0.003635737840449419</v>
+      </c>
+      <c r="H30">
         <v>67748938127.38499</v>
-      </c>
-      <c r="H30" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1278,23 +1278,23 @@
       <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>19</v>
       </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>246317378</v>
+      <c r="E31" t="s">
+        <v>33</v>
       </c>
       <c r="F31">
-        <v>0.003635737840449419</v>
+        <v>169212902.12</v>
       </c>
       <c r="G31">
+        <v>0.002497646557970212</v>
+      </c>
+      <c r="H31">
         <v>67748938127.38499</v>
-      </c>
-      <c r="H31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1304,23 +1304,23 @@
       <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>9</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32">
         <v>37663603854.626</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.9452623527192281</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>39844603719.041</v>
-      </c>
-      <c r="H32" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1330,23 +1330,23 @@
       <c r="B33" t="s">
         <v>8</v>
       </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>290429924</v>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
       </c>
       <c r="F33">
-        <v>0.007289065441532021</v>
+        <v>442058964</v>
       </c>
       <c r="G33">
+        <v>0.01109457549426569</v>
+      </c>
+      <c r="H33">
         <v>39844603719.041</v>
-      </c>
-      <c r="H33" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1356,23 +1356,23 @@
       <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>442058964</v>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
       </c>
       <c r="F34">
-        <v>0.01109457549426569</v>
+        <v>336726680</v>
       </c>
       <c r="G34">
+        <v>0.008450998342821628</v>
+      </c>
+      <c r="H34">
         <v>39844603719.041</v>
-      </c>
-      <c r="H34" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1382,23 +1382,23 @@
       <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35">
-        <v>5</v>
-      </c>
-      <c r="E35">
-        <v>268921727</v>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
       </c>
       <c r="F35">
-        <v>0.006749263435928898</v>
+        <v>290429924</v>
       </c>
       <c r="G35">
+        <v>0.007289065441532021</v>
+      </c>
+      <c r="H35">
         <v>39844603719.041</v>
-      </c>
-      <c r="H35" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1408,23 +1408,23 @@
       <c r="B36" t="s">
         <v>8</v>
       </c>
-      <c r="C36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>336726680</v>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>32</v>
       </c>
       <c r="F36">
-        <v>0.008450998342821628</v>
+        <v>268921727</v>
       </c>
       <c r="G36">
+        <v>0.006749263435928898</v>
+      </c>
+      <c r="H36">
         <v>39844603719.041</v>
-      </c>
-      <c r="H36" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1434,23 +1434,23 @@
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>9</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37">
         <v>51232258923.115</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.9617254065646081</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>53271192144.255</v>
-      </c>
-      <c r="H37" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1460,23 +1460,23 @@
       <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38">
-        <v>236513063.736</v>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
       </c>
       <c r="F38">
-        <v>0.00443979295780612</v>
+        <v>323441193.649</v>
       </c>
       <c r="G38">
+        <v>0.006071596685374373</v>
+      </c>
+      <c r="H38">
         <v>53271192144.255</v>
-      </c>
-      <c r="H38" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1486,23 +1486,23 @@
       <c r="B39" t="s">
         <v>8</v>
       </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>323441193.649</v>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
       </c>
       <c r="F39">
-        <v>0.006071596685374373</v>
+        <v>321712229</v>
       </c>
       <c r="G39">
+        <v>0.00603914078229794</v>
+      </c>
+      <c r="H39">
         <v>53271192144.255</v>
-      </c>
-      <c r="H39" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1512,23 +1512,23 @@
       <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40">
+      <c r="C40">
         <v>4</v>
       </c>
-      <c r="E40">
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40">
         <v>257843942</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.004840213474137673</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>53271192144.255</v>
-      </c>
-      <c r="H40" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1538,23 +1538,23 @@
       <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="C41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41">
-        <v>321712229</v>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
       </c>
       <c r="F41">
-        <v>0.00603914078229794</v>
+        <v>236513063.736</v>
       </c>
       <c r="G41">
+        <v>0.00443979295780612</v>
+      </c>
+      <c r="H41">
         <v>53271192144.255</v>
-      </c>
-      <c r="H41" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1564,23 +1564,23 @@
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
         <v>9</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42">
         <v>63112713148.611</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.9576169239015685</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>65906012700.229</v>
-      </c>
-      <c r="H42" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1590,23 +1590,23 @@
       <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43">
-        <v>573755494.614</v>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
       </c>
       <c r="F43">
-        <v>0.008705662368374568</v>
+        <v>750305508</v>
       </c>
       <c r="G43">
+        <v>0.01138447733764044</v>
+      </c>
+      <c r="H43">
         <v>65906012700.229</v>
-      </c>
-      <c r="H43" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1616,23 +1616,23 @@
       <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="C44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-      <c r="E44">
-        <v>254329873.639</v>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
       </c>
       <c r="F44">
-        <v>0.003858978311976023</v>
+        <v>573755494.614</v>
       </c>
       <c r="G44">
+        <v>0.008705662368374568</v>
+      </c>
+      <c r="H44">
         <v>65906012700.229</v>
-      </c>
-      <c r="H44" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1642,23 +1642,23 @@
       <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
         <v>10</v>
       </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
-      <c r="E45">
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45">
         <v>497404862.519</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.007547184879495399</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>65906012700.229</v>
-      </c>
-      <c r="H45" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1668,23 +1668,23 @@
       <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>750305508</v>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
       </c>
       <c r="F46">
-        <v>0.01138447733764044</v>
+        <v>254329873.639</v>
       </c>
       <c r="G46">
+        <v>0.003858978311976023</v>
+      </c>
+      <c r="H46">
         <v>65906012700.229</v>
-      </c>
-      <c r="H46" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1694,23 +1694,23 @@
       <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47">
-        <v>5</v>
-      </c>
-      <c r="E47">
-        <v>490676644.234</v>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
       </c>
       <c r="F47">
-        <v>0.006499948587099942</v>
+        <v>70071287724.17</v>
       </c>
       <c r="G47">
+        <v>0.9282279337954119</v>
+      </c>
+      <c r="H47">
         <v>75489311593.605</v>
-      </c>
-      <c r="H47" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1720,23 +1720,23 @@
       <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
         <v>10</v>
       </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48">
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48">
         <v>2064061569.755</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0.02734243465971486</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>75489311593.605</v>
-      </c>
-      <c r="H48" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1746,23 +1746,23 @@
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>70071287724.17</v>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>32</v>
       </c>
       <c r="F49">
-        <v>0.9282279337954119</v>
+        <v>909481828</v>
       </c>
       <c r="G49">
+        <v>0.01204782251686404</v>
+      </c>
+      <c r="H49">
         <v>75489311593.605</v>
-      </c>
-      <c r="H49" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1772,23 +1772,23 @@
       <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="C50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50">
-        <v>909481828</v>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
       </c>
       <c r="F50">
-        <v>0.01204782251686404</v>
+        <v>892751499</v>
       </c>
       <c r="G50">
+        <v>0.01182619738018155</v>
+      </c>
+      <c r="H50">
         <v>75489311593.605</v>
-      </c>
-      <c r="H50" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1798,23 +1798,23 @@
       <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-      <c r="E51">
-        <v>892751499</v>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
       </c>
       <c r="F51">
-        <v>0.01182619738018155</v>
+        <v>490676644.234</v>
       </c>
       <c r="G51">
+        <v>0.006499948587099942</v>
+      </c>
+      <c r="H51">
         <v>75489311593.605</v>
-      </c>
-      <c r="H51" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1824,23 +1824,23 @@
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
         <v>9</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52">
         <v>67290277427.78</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0.9306233503335791</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>72306672085.608</v>
-      </c>
-      <c r="H52" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1850,23 +1850,23 @@
       <c r="B53" t="s">
         <v>8</v>
       </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53">
-        <v>672496033.575</v>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
       </c>
       <c r="F53">
-        <v>0.009300608286587905</v>
+        <v>1339792266.596</v>
       </c>
       <c r="G53">
+        <v>0.01852930342319923</v>
+      </c>
+      <c r="H53">
         <v>72306672085.608</v>
-      </c>
-      <c r="H53" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1876,23 +1876,23 @@
       <c r="B54" t="s">
         <v>8</v>
       </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54">
-        <v>1339792266.596</v>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
       </c>
       <c r="F54">
-        <v>0.01852930342319923</v>
+        <v>786302637.469</v>
       </c>
       <c r="G54">
+        <v>0.01087455161175239</v>
+      </c>
+      <c r="H54">
         <v>72306672085.608</v>
-      </c>
-      <c r="H54" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1902,23 +1902,23 @@
       <c r="B55" t="s">
         <v>8</v>
       </c>
-      <c r="C55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55">
-        <v>549567516</v>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>34</v>
       </c>
       <c r="F55">
-        <v>0.007600509056056896</v>
+        <v>672496033.575</v>
       </c>
       <c r="G55">
+        <v>0.009300608286587905</v>
+      </c>
+      <c r="H55">
         <v>72306672085.608</v>
-      </c>
-      <c r="H55" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1928,23 +1928,23 @@
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="C56" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56">
-        <v>786302637.469</v>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>32</v>
       </c>
       <c r="F56">
-        <v>0.01087455161175239</v>
+        <v>549567516</v>
       </c>
       <c r="G56">
+        <v>0.007600509056056896</v>
+      </c>
+      <c r="H56">
         <v>72306672085.608</v>
-      </c>
-      <c r="H56" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1954,23 +1954,23 @@
       <c r="B57" t="s">
         <v>8</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
         <v>9</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57">
         <v>61309316812.647</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>0.9476313616647746</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>64697433298.261</v>
-      </c>
-      <c r="H57" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1980,23 +1980,23 @@
       <c r="B58" t="s">
         <v>8</v>
       </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-      <c r="E58">
-        <v>549285039.904</v>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
       </c>
       <c r="F58">
-        <v>0.008490059217214175</v>
+        <v>1614874266.651</v>
       </c>
       <c r="G58">
+        <v>0.02496040699491561</v>
+      </c>
+      <c r="H58">
         <v>64697433298.261</v>
-      </c>
-      <c r="H58" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2006,23 +2006,23 @@
       <c r="B59" t="s">
         <v>8</v>
       </c>
-      <c r="C59" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-      <c r="E59">
-        <v>297758063</v>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
       </c>
       <c r="F59">
-        <v>0.004602316472545494</v>
+        <v>549285039.904</v>
       </c>
       <c r="G59">
+        <v>0.008490059217214175</v>
+      </c>
+      <c r="H59">
         <v>64697433298.261</v>
-      </c>
-      <c r="H59" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2032,23 +2032,23 @@
       <c r="B60" t="s">
         <v>8</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
         <v>15</v>
       </c>
-      <c r="D60">
-        <v>4</v>
-      </c>
-      <c r="E60">
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60">
         <v>304466641.364</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>0.004706008041468683</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>64697433298.261</v>
-      </c>
-      <c r="H60" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2058,23 +2058,23 @@
       <c r="B61" t="s">
         <v>8</v>
       </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61">
-        <v>1614874266.651</v>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" t="s">
+        <v>35</v>
       </c>
       <c r="F61">
-        <v>0.02496040699491561</v>
+        <v>297758063</v>
       </c>
       <c r="G61">
+        <v>0.004602316472545494</v>
+      </c>
+      <c r="H61">
         <v>64697433298.261</v>
-      </c>
-      <c r="H61" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2084,23 +2084,23 @@
       <c r="B62" t="s">
         <v>8</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
         <v>9</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62">
         <v>33142378531.43</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>0.8996700293397103</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>36838371236.79</v>
-      </c>
-      <c r="H62" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2110,23 +2110,23 @@
       <c r="B63" t="s">
         <v>8</v>
       </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63">
-        <v>666488970.642</v>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
       </c>
       <c r="F63">
-        <v>0.01809224860561658</v>
+        <v>1838077008.376</v>
       </c>
       <c r="G63">
+        <v>0.0498957186939996</v>
+      </c>
+      <c r="H63">
         <v>36838371236.79</v>
-      </c>
-      <c r="H63" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2136,23 +2136,23 @@
       <c r="B64" t="s">
         <v>8</v>
       </c>
-      <c r="C64" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64">
-        <v>5</v>
-      </c>
-      <c r="E64">
-        <v>119217828.595</v>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>34</v>
       </c>
       <c r="F64">
-        <v>0.003236240490348789</v>
+        <v>666488970.642</v>
       </c>
       <c r="G64">
+        <v>0.01809224860561658</v>
+      </c>
+      <c r="H64">
         <v>36838371236.79</v>
-      </c>
-      <c r="H64" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2162,23 +2162,23 @@
       <c r="B65" t="s">
         <v>8</v>
       </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65">
-        <v>1838077008.376</v>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>30</v>
       </c>
       <c r="F65">
-        <v>0.0498957186939996</v>
+        <v>547289662.4699999</v>
       </c>
       <c r="G65">
+        <v>0.01485651086341811</v>
+      </c>
+      <c r="H65">
         <v>36838371236.79</v>
-      </c>
-      <c r="H65" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2188,23 +2188,23 @@
       <c r="B66" t="s">
         <v>8</v>
       </c>
-      <c r="C66" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66">
-        <v>4</v>
-      </c>
-      <c r="E66">
-        <v>547289662.4699999</v>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
       </c>
       <c r="F66">
-        <v>0.01485651086341811</v>
+        <v>119217828.595</v>
       </c>
       <c r="G66">
+        <v>0.003236240490348789</v>
+      </c>
+      <c r="H66">
         <v>36838371236.79</v>
-      </c>
-      <c r="H66" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2214,23 +2214,23 @@
       <c r="B67" t="s">
         <v>8</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
         <v>9</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
+      <c r="E67" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67">
         <v>25303998319.817</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>0.8938968157653072</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>28307515893.938</v>
-      </c>
-      <c r="H67" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2240,23 +2240,23 @@
       <c r="B68" t="s">
         <v>8</v>
       </c>
-      <c r="C68" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68">
-        <v>162995050.204</v>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>24</v>
       </c>
       <c r="F68">
-        <v>0.005758013200971304</v>
+        <v>1836067256.729</v>
       </c>
       <c r="G68">
+        <v>0.06486147578644265</v>
+      </c>
+      <c r="H68">
         <v>28307515893.938</v>
-      </c>
-      <c r="H68" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2266,23 +2266,23 @@
       <c r="B69" t="s">
         <v>8</v>
       </c>
-      <c r="C69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69">
-        <v>5</v>
-      </c>
-      <c r="E69">
-        <v>115389093.371</v>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>34</v>
       </c>
       <c r="F69">
-        <v>0.004076270549607299</v>
+        <v>244885593.515</v>
       </c>
       <c r="G69">
+        <v>0.008650903683408043</v>
+      </c>
+      <c r="H69">
         <v>28307515893.938</v>
-      </c>
-      <c r="H69" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2292,23 +2292,23 @@
       <c r="B70" t="s">
         <v>8</v>
       </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="E70">
-        <v>1836067256.729</v>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" t="s">
+        <v>35</v>
       </c>
       <c r="F70">
-        <v>0.06486147578644265</v>
+        <v>162995050.204</v>
       </c>
       <c r="G70">
+        <v>0.005758013200971304</v>
+      </c>
+      <c r="H70">
         <v>28307515893.938</v>
-      </c>
-      <c r="H70" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2318,23 +2318,23 @@
       <c r="B71" t="s">
         <v>8</v>
       </c>
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71">
-        <v>3</v>
-      </c>
-      <c r="E71">
-        <v>244885593.515</v>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
       </c>
       <c r="F71">
-        <v>0.008650903683408043</v>
+        <v>115389093.371</v>
       </c>
       <c r="G71">
+        <v>0.004076270549607299</v>
+      </c>
+      <c r="H71">
         <v>28307515893.938</v>
-      </c>
-      <c r="H71" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2344,23 +2344,23 @@
       <c r="B72" t="s">
         <v>8</v>
       </c>
-      <c r="C72" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72">
-        <v>5</v>
-      </c>
-      <c r="E72">
-        <v>202151176.583</v>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>23</v>
       </c>
       <c r="F72">
-        <v>0.005507061981485283</v>
+        <v>31629925150.163</v>
       </c>
       <c r="G72">
+        <v>0.8616717508946534</v>
+      </c>
+      <c r="H72">
         <v>36707626909.345</v>
-      </c>
-      <c r="H72" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2370,23 +2370,23 @@
       <c r="B73" t="s">
         <v>8</v>
       </c>
-      <c r="C73" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73">
-        <v>1040970251.272</v>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>24</v>
       </c>
       <c r="F73">
-        <v>0.02835841864261159</v>
+        <v>2478620675.742</v>
       </c>
       <c r="G73">
+        <v>0.06752331557317301</v>
+      </c>
+      <c r="H73">
         <v>36707626909.345</v>
-      </c>
-      <c r="H73" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2396,23 +2396,23 @@
       <c r="B74" t="s">
         <v>8</v>
       </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74">
-        <v>2478620675.742</v>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>35</v>
       </c>
       <c r="F74">
-        <v>0.06752331557317301</v>
+        <v>1040970251.272</v>
       </c>
       <c r="G74">
+        <v>0.02835841864261159</v>
+      </c>
+      <c r="H74">
         <v>36707626909.345</v>
-      </c>
-      <c r="H74" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2422,23 +2422,23 @@
       <c r="B75" t="s">
         <v>8</v>
       </c>
-      <c r="C75" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>31629925150.163</v>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
       </c>
       <c r="F75">
-        <v>0.8616717508946534</v>
+        <v>351839752.77</v>
       </c>
       <c r="G75">
+        <v>0.009584922327965277</v>
+      </c>
+      <c r="H75">
         <v>36707626909.345</v>
-      </c>
-      <c r="H75" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2448,23 +2448,23 @@
       <c r="B76" t="s">
         <v>8</v>
       </c>
-      <c r="C76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
-      <c r="E76">
-        <v>351839752.77</v>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>36</v>
       </c>
       <c r="F76">
-        <v>0.009584922327965277</v>
+        <v>202151176.583</v>
       </c>
       <c r="G76">
+        <v>0.005507061981485283</v>
+      </c>
+      <c r="H76">
         <v>36707626909.345</v>
-      </c>
-      <c r="H76" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2474,23 +2474,23 @@
       <c r="B77" t="s">
         <v>8</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
         <v>9</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77">
         <v>38649590903.41</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>0.8746178800386626</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>44190259295.524</v>
-      </c>
-      <c r="H77" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2500,23 +2500,23 @@
       <c r="B78" t="s">
         <v>8</v>
       </c>
-      <c r="C78" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78">
-        <v>1520628153.483</v>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>24</v>
       </c>
       <c r="F78">
-        <v>0.03441093529942295</v>
+        <v>2208487556.289</v>
       </c>
       <c r="G78">
+        <v>0.04997679559922147</v>
+      </c>
+      <c r="H78">
         <v>44190259295.524</v>
-      </c>
-      <c r="H78" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2526,23 +2526,23 @@
       <c r="B79" t="s">
         <v>8</v>
       </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79">
-        <v>2208487556.289</v>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" t="s">
+        <v>35</v>
       </c>
       <c r="F79">
-        <v>0.04997679559922147</v>
+        <v>1520628153.483</v>
       </c>
       <c r="G79">
+        <v>0.03441093529942295</v>
+      </c>
+      <c r="H79">
         <v>44190259295.524</v>
-      </c>
-      <c r="H79" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2552,23 +2552,23 @@
       <c r="B80" t="s">
         <v>8</v>
       </c>
-      <c r="C80" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80">
-        <v>5</v>
-      </c>
-      <c r="E80">
-        <v>301511758.088</v>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>29</v>
       </c>
       <c r="F80">
-        <v>0.006823036635101616</v>
+        <v>407918898.824</v>
       </c>
       <c r="G80">
+        <v>0.009230968664293803</v>
+      </c>
+      <c r="H80">
         <v>44190259295.524</v>
-      </c>
-      <c r="H80" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2578,23 +2578,23 @@
       <c r="B81" t="s">
         <v>8</v>
       </c>
-      <c r="C81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81">
-        <v>4</v>
-      </c>
-      <c r="E81">
-        <v>407918898.824</v>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>28</v>
       </c>
       <c r="F81">
-        <v>0.009230968664293803</v>
+        <v>301511758.088</v>
       </c>
       <c r="G81">
+        <v>0.006823036635101616</v>
+      </c>
+      <c r="H81">
         <v>44190259295.524</v>
-      </c>
-      <c r="H81" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2604,23 +2604,23 @@
       <c r="B82" t="s">
         <v>8</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
         <v>9</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82">
         <v>32848819076.848</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>0.8749812576883109</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>37542311664.634</v>
-      </c>
-      <c r="H82" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2630,23 +2630,23 @@
       <c r="B83" t="s">
         <v>8</v>
       </c>
-      <c r="C83" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83">
-        <v>5</v>
-      </c>
-      <c r="E83">
-        <v>229382276.953</v>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>24</v>
       </c>
       <c r="F83">
-        <v>0.00610996677567634</v>
+        <v>1599071860.588</v>
       </c>
       <c r="G83">
+        <v>0.04259385716235409</v>
+      </c>
+      <c r="H83">
         <v>37542311664.634</v>
-      </c>
-      <c r="H83" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2656,23 +2656,23 @@
       <c r="B84" t="s">
         <v>8</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
         <v>20</v>
       </c>
-      <c r="D84">
-        <v>3</v>
-      </c>
-      <c r="E84">
+      <c r="E84" t="s">
+        <v>35</v>
+      </c>
+      <c r="F84">
         <v>1306649180.82</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>0.03480470761876136</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>37542311664.634</v>
-      </c>
-      <c r="H84" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2682,23 +2682,23 @@
       <c r="B85" t="s">
         <v>8</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
         <v>15</v>
       </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-      <c r="E85">
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85">
         <v>440201044.652</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>0.0117254645527511</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>37542311664.634</v>
-      </c>
-      <c r="H85" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2708,23 +2708,23 @@
       <c r="B86" t="s">
         <v>8</v>
       </c>
-      <c r="C86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-      <c r="E86">
-        <v>1599071860.588</v>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" t="s">
+        <v>36</v>
       </c>
       <c r="F86">
-        <v>0.04259385716235409</v>
+        <v>229382276.953</v>
       </c>
       <c r="G86">
+        <v>0.00610996677567634</v>
+      </c>
+      <c r="H86">
         <v>37542311664.634</v>
-      </c>
-      <c r="H86" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2734,23 +2734,23 @@
       <c r="B87" t="s">
         <v>8</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
         <v>9</v>
       </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
+      <c r="E87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87">
         <v>20537086924.486</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>0.8552678841409959</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>24012461247.873</v>
-      </c>
-      <c r="H87" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2760,23 +2760,23 @@
       <c r="B88" t="s">
         <v>8</v>
       </c>
-      <c r="C88" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88">
-        <v>5</v>
-      </c>
-      <c r="E88">
-        <v>188211345.478</v>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>24</v>
       </c>
       <c r="F88">
-        <v>0.007838069722847405</v>
+        <v>1370737895.533</v>
       </c>
       <c r="G88">
+        <v>0.05708443967418869</v>
+      </c>
+      <c r="H88">
         <v>24012461247.873</v>
-      </c>
-      <c r="H88" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2786,23 +2786,23 @@
       <c r="B89" t="s">
         <v>8</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
         <v>20</v>
       </c>
-      <c r="D89">
-        <v>3</v>
-      </c>
-      <c r="E89">
+      <c r="E89" t="s">
+        <v>35</v>
+      </c>
+      <c r="F89">
         <v>1025552234.907</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>0.04270916772423079</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>24012461247.873</v>
-      </c>
-      <c r="H89" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2812,23 +2812,23 @@
       <c r="B90" t="s">
         <v>8</v>
       </c>
-      <c r="C90" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-      <c r="E90">
-        <v>1370737895.533</v>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>29</v>
       </c>
       <c r="F90">
-        <v>0.05708443967418869</v>
+        <v>370373342.231</v>
       </c>
       <c r="G90">
+        <v>0.01542421405318488</v>
+      </c>
+      <c r="H90">
         <v>24012461247.873</v>
-      </c>
-      <c r="H90" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2838,23 +2838,23 @@
       <c r="B91" t="s">
         <v>8</v>
       </c>
-      <c r="C91" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91">
-        <v>4</v>
-      </c>
-      <c r="E91">
-        <v>370373342.231</v>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" t="s">
+        <v>36</v>
       </c>
       <c r="F91">
-        <v>0.01542421405318488</v>
+        <v>188211345.478</v>
       </c>
       <c r="G91">
+        <v>0.007838069722847405</v>
+      </c>
+      <c r="H91">
         <v>24012461247.873</v>
-      </c>
-      <c r="H91" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2864,23 +2864,23 @@
       <c r="B92" t="s">
         <v>8</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
         <v>9</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
+      <c r="E92" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92">
         <v>27464000451.337</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>0.8162753078354686</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>33645511738.146</v>
-      </c>
-      <c r="H92" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2890,23 +2890,23 @@
       <c r="B93" t="s">
         <v>8</v>
       </c>
-      <c r="C93" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93">
-        <v>3</v>
-      </c>
-      <c r="E93">
-        <v>2317404640.749</v>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>24</v>
       </c>
       <c r="F93">
-        <v>0.06887708110326093</v>
+        <v>2380789035.204</v>
       </c>
       <c r="G93">
+        <v>0.07076096965720251</v>
+      </c>
+      <c r="H93">
         <v>33645511738.146</v>
-      </c>
-      <c r="H93" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2916,23 +2916,23 @@
       <c r="B94" t="s">
         <v>8</v>
       </c>
-      <c r="C94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94">
-        <v>4</v>
-      </c>
-      <c r="E94">
-        <v>478958470.77</v>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" t="s">
+        <v>35</v>
       </c>
       <c r="F94">
-        <v>0.01423543426824967</v>
+        <v>2317404640.749</v>
       </c>
       <c r="G94">
+        <v>0.06887708110326093</v>
+      </c>
+      <c r="H94">
         <v>33645511738.146</v>
-      </c>
-      <c r="H94" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2942,23 +2942,23 @@
       <c r="B95" t="s">
         <v>8</v>
       </c>
-      <c r="C95" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95">
-        <v>2380789035.204</v>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" t="s">
+        <v>29</v>
       </c>
       <c r="F95">
-        <v>0.07076096965720251</v>
+        <v>478958470.77</v>
       </c>
       <c r="G95">
+        <v>0.01423543426824967</v>
+      </c>
+      <c r="H95">
         <v>33645511738.146</v>
-      </c>
-      <c r="H95" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2968,23 +2968,23 @@
       <c r="B96" t="s">
         <v>8</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
         <v>22</v>
       </c>
-      <c r="D96">
-        <v>5</v>
-      </c>
-      <c r="E96">
+      <c r="E96" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96">
         <v>200532533.354</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>0.005960157031187129</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>33645511738.146</v>
-      </c>
-      <c r="H96" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2994,23 +2994,23 @@
       <c r="B97" t="s">
         <v>8</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
         <v>9</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
+      <c r="E97" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97">
         <v>41299882062.809</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>0.7800735916262701</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>52943571614.453</v>
-      </c>
-      <c r="H97" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3020,23 +3020,23 @@
       <c r="B98" t="s">
         <v>8</v>
       </c>
-      <c r="C98" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98">
-        <v>4</v>
-      </c>
-      <c r="E98">
-        <v>484590170.871</v>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" t="s">
+        <v>35</v>
       </c>
       <c r="F98">
-        <v>0.009152955799806907</v>
+        <v>6831124384.583</v>
       </c>
       <c r="G98">
+        <v>0.1290265121198997</v>
+      </c>
+      <c r="H98">
         <v>52943571614.453</v>
-      </c>
-      <c r="H98" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3046,23 +3046,23 @@
       <c r="B99" t="s">
         <v>8</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
         <v>10</v>
       </c>
-      <c r="D99">
-        <v>3</v>
-      </c>
-      <c r="E99">
+      <c r="E99" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99">
         <v>2904521600.363</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>0.05486070379826997</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>52943571614.453</v>
-      </c>
-      <c r="H99" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3072,23 +3072,23 @@
       <c r="B100" t="s">
         <v>8</v>
       </c>
-      <c r="C100" t="s">
-        <v>20</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-      <c r="E100">
-        <v>6831124384.583</v>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" t="s">
+        <v>36</v>
       </c>
       <c r="F100">
-        <v>0.1290265121198997</v>
+        <v>484590170.871</v>
       </c>
       <c r="G100">
+        <v>0.009152955799806907</v>
+      </c>
+      <c r="H100">
         <v>52943571614.453</v>
-      </c>
-      <c r="H100" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3098,23 +3098,23 @@
       <c r="B101" t="s">
         <v>8</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
         <v>15</v>
       </c>
-      <c r="D101">
-        <v>5</v>
-      </c>
-      <c r="E101">
+      <c r="E101" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101">
         <v>479542258.327</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>0.009057610654210006</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>52943571614.453</v>
-      </c>
-      <c r="H101" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3124,23 +3124,23 @@
       <c r="B102" t="s">
         <v>8</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
         <v>9</v>
       </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
+      <c r="E102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102">
         <v>29896612959.179</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>0.8466229053115243</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>35312785387.23</v>
-      </c>
-      <c r="H102" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3150,23 +3150,23 @@
       <c r="B103" t="s">
         <v>8</v>
       </c>
-      <c r="C103" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103">
-        <v>5</v>
-      </c>
-      <c r="E103">
-        <v>139577179.331</v>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" t="s">
+        <v>35</v>
       </c>
       <c r="F103">
-        <v>0.003952596143307196</v>
+        <v>2730503280.164</v>
       </c>
       <c r="G103">
+        <v>0.07732336178588223</v>
+      </c>
+      <c r="H103">
         <v>35312785387.23</v>
-      </c>
-      <c r="H103" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3176,23 +3176,23 @@
       <c r="B104" t="s">
         <v>8</v>
       </c>
-      <c r="C104" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="E104">
-        <v>2730503280.164</v>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" t="s">
+        <v>24</v>
       </c>
       <c r="F104">
-        <v>0.07732336178588223</v>
+        <v>1751081815.943</v>
       </c>
       <c r="G104">
+        <v>0.04958775686316254</v>
+      </c>
+      <c r="H104">
         <v>35312785387.23</v>
-      </c>
-      <c r="H104" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3202,23 +3202,23 @@
       <c r="B105" t="s">
         <v>8</v>
       </c>
-      <c r="C105" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105">
-        <v>3</v>
-      </c>
-      <c r="E105">
-        <v>1751081815.943</v>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>29</v>
       </c>
       <c r="F105">
-        <v>0.04958775686316254</v>
+        <v>276093018.316</v>
       </c>
       <c r="G105">
+        <v>0.007818500163282002</v>
+      </c>
+      <c r="H105">
         <v>35312785387.23</v>
-      </c>
-      <c r="H105" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3228,23 +3228,23 @@
       <c r="B106" t="s">
         <v>8</v>
       </c>
-      <c r="C106" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106">
-        <v>4</v>
-      </c>
-      <c r="E106">
-        <v>276093018.316</v>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" t="s">
+        <v>36</v>
       </c>
       <c r="F106">
-        <v>0.007818500163282002</v>
+        <v>139577179.331</v>
       </c>
       <c r="G106">
+        <v>0.003952596143307196</v>
+      </c>
+      <c r="H106">
         <v>35312785387.23</v>
-      </c>
-      <c r="H106" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
